--- a/biology/Botanique/Alfred_Saint-Yves/Alfred_Saint-Yves.xlsx
+++ b/biology/Botanique/Alfred_Saint-Yves/Alfred_Saint-Yves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Marie Augustin Saint-Yves, né le 7 mai 1855 à Paris[1] et mort le 8 octobre 1933 à Vernou-sur-Brenne (Indre-et-Loire), est un officier, botaniste et agrostologue français. Il fut un spécialiste, entre autres, du genre Festuca.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Marie Augustin Saint-Yves, né le 7 mai 1855 à Paris et mort le 8 octobre 1933 à Vernou-sur-Brenne (Indre-et-Loire), est un officier, botaniste et agrostologue français. Il fut un spécialiste, entre autres, du genre Festuca.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un ingénieur des ponts et chaussées, il est admis à l'École polytechnique en 1875. Il accomplit une carrière d'officier d'artillerie achevée au grade de chef d'escadron. Il est fait officier de la Légion d'honneur en 1917.
 </t>
@@ -542,9 +556,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Yvesia (Poaceae) a été dédié à Alfred Saint-Yves[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Yvesia (Poaceae) a été dédié à Alfred Saint-Yves.
 </t>
         </is>
       </c>
